--- a/doc/00_common/sequence-diagram.xlsx
+++ b/doc/00_common/sequence-diagram.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Web クライアント</t>
     <phoneticPr fontId="1"/>
@@ -200,6 +200,39 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>room changed を送信</t>
+    <rPh sb="14" eb="16">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント： 部屋状態変更 room changed</t>
+    <rPh sb="6" eb="8">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋の状態変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1100,6 +1133,56 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1219201</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4419600" y="5248275"/>
+          <a:ext cx="7410451" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1420,7 +1503,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1927,6 +2010,39 @@
       <c r="F64" s="11"/>
       <c r="K64" s="10"/>
       <c r="L64" s="11"/>
+    </row>
+    <row r="66" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="D66" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" s="10"/>
+      <c r="F66" s="11"/>
+      <c r="G66" t="s">
+        <v>28</v>
+      </c>
+      <c r="K66" s="13"/>
+      <c r="L66" s="14"/>
+      <c r="M66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="E67" s="10"/>
+      <c r="F67" s="11"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="11"/>
+    </row>
+    <row r="68" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="E68" s="10"/>
+      <c r="F68" s="11"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="11"/>
+    </row>
+    <row r="69" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="E69" s="10"/>
+      <c r="F69" s="11"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
